--- a/ApostasGeradas/2023-07-23_entradas.xlsx
+++ b/ApostasGeradas/2023-07-23_entradas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Programacao\DadosParaBet\ApostasGeradas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C969FDB-20D1-4978-88ED-2AC95547336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A687B87-38B4-4807-B61E-8F6310DA49EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,18 @@
     <t>Método</t>
   </si>
   <si>
+    <t>PlacarHome</t>
+  </si>
+  <si>
+    <t>PlacarAway</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>GanhosPerdas</t>
+  </si>
+  <si>
     <t>23.07.2023</t>
   </si>
   <si>
@@ -68,6 +80,9 @@
   </si>
   <si>
     <t>full25</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>20:00</t>
@@ -448,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,9 +479,13 @@
     <col min="6" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,22 +516,34 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>2.29</v>
@@ -527,24 +558,36 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>2.0499999999999998</v>
@@ -559,24 +602,36 @@
         <v>3.5</v>
       </c>
       <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>20</v>
       </c>
+      <c r="N3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>2.29</v>
@@ -591,7 +646,19 @@
         <v>1.83</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
